--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2852,28 +2852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1916.699547356517</v>
+        <v>2089.281651920166</v>
       </c>
       <c r="AB2" t="n">
-        <v>2622.512879509352</v>
+        <v>2858.647328758438</v>
       </c>
       <c r="AC2" t="n">
-        <v>2372.223931008924</v>
+        <v>2585.822039838456</v>
       </c>
       <c r="AD2" t="n">
-        <v>1916699.547356517</v>
+        <v>2089281.651920166</v>
       </c>
       <c r="AE2" t="n">
-        <v>2622512.879509353</v>
+        <v>2858647.328758438</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.57262721672098e-07</v>
+        <v>1.091718718049072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.13310185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>2372223.931008924</v>
+        <v>2585822.039838457</v>
       </c>
     </row>
     <row r="3">
@@ -2958,28 +2958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1132.755972710763</v>
+        <v>1262.000556587852</v>
       </c>
       <c r="AB3" t="n">
-        <v>1549.886695529418</v>
+        <v>1726.724837058674</v>
       </c>
       <c r="AC3" t="n">
-        <v>1401.967684587729</v>
+        <v>1561.928642083323</v>
       </c>
       <c r="AD3" t="n">
-        <v>1132755.972710763</v>
+        <v>1262000.556587852</v>
       </c>
       <c r="AE3" t="n">
-        <v>1549886.695529418</v>
+        <v>1726724.837058674</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.06943205502524e-06</v>
+        <v>1.541762137154674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.42013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1401967.684587729</v>
+        <v>1561928.642083323</v>
       </c>
     </row>
     <row r="4">
@@ -3064,28 +3064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>955.2587370683049</v>
+        <v>1067.49251840959</v>
       </c>
       <c r="AB4" t="n">
-        <v>1307.027147098028</v>
+        <v>1460.590358134155</v>
       </c>
       <c r="AC4" t="n">
-        <v>1182.286310603114</v>
+        <v>1321.193664305273</v>
       </c>
       <c r="AD4" t="n">
-        <v>955258.7370683049</v>
+        <v>1067492.51840959</v>
       </c>
       <c r="AE4" t="n">
-        <v>1307027.147098028</v>
+        <v>1460590.358134155</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.191222210483843e-06</v>
+        <v>1.717342670281507e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.5150462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1182286.310603114</v>
+        <v>1321193.664305273</v>
       </c>
     </row>
     <row r="5">
@@ -3170,28 +3170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>871.0702459791707</v>
+        <v>974.5854081789521</v>
       </c>
       <c r="AB5" t="n">
-        <v>1191.836739455778</v>
+        <v>1333.470751144169</v>
       </c>
       <c r="AC5" t="n">
-        <v>1078.089513795488</v>
+        <v>1206.206174192922</v>
       </c>
       <c r="AD5" t="n">
-        <v>871070.2459791708</v>
+        <v>974585.4081789521</v>
       </c>
       <c r="AE5" t="n">
-        <v>1191836.739455778</v>
+        <v>1333470.751144169</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.258393236284426e-06</v>
+        <v>1.814180747844775e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.1550925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1078089.513795488</v>
+        <v>1206206.174192922</v>
       </c>
     </row>
     <row r="6">
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>811.1288918552003</v>
+        <v>914.5587132004101</v>
       </c>
       <c r="AB6" t="n">
-        <v>1109.822334317453</v>
+        <v>1251.339578883646</v>
       </c>
       <c r="AC6" t="n">
-        <v>1003.902448375623</v>
+        <v>1131.913485741119</v>
       </c>
       <c r="AD6" t="n">
-        <v>811128.8918552003</v>
+        <v>914558.7132004101</v>
       </c>
       <c r="AE6" t="n">
-        <v>1109822.334317453</v>
+        <v>1251339.578883646</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.300250396224274e-06</v>
+        <v>1.874524725810314e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.3738425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1003902.448375623</v>
+        <v>1131913.485741119</v>
       </c>
     </row>
     <row r="7">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>761.9551341794797</v>
+        <v>865.4702068707098</v>
       </c>
       <c r="AB7" t="n">
-        <v>1042.540629672451</v>
+        <v>1184.174518891293</v>
       </c>
       <c r="AC7" t="n">
-        <v>943.0420151914751</v>
+        <v>1071.158564807683</v>
       </c>
       <c r="AD7" t="n">
-        <v>761955.1341794797</v>
+        <v>865470.2068707098</v>
       </c>
       <c r="AE7" t="n">
-        <v>1042540.629672451</v>
+        <v>1184174.518891293</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.330816101475204e-06</v>
+        <v>1.918590215366078e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.83564814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>943042.0151914752</v>
+        <v>1071158.564807683</v>
       </c>
     </row>
     <row r="8">
@@ -3488,28 +3488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>737.1265769603353</v>
+        <v>840.6416496515656</v>
       </c>
       <c r="AB8" t="n">
-        <v>1008.56910232658</v>
+        <v>1150.202991545422</v>
       </c>
       <c r="AC8" t="n">
-        <v>912.3126827361556</v>
+        <v>1040.429232352364</v>
       </c>
       <c r="AD8" t="n">
-        <v>737126.5769603354</v>
+        <v>840641.6496515656</v>
       </c>
       <c r="AE8" t="n">
-        <v>1008569.10232658</v>
+        <v>1150202.991545422</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.347359395554316e-06</v>
+        <v>1.942440093733888e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.55787037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>912312.6827361556</v>
+        <v>1040429.232352364</v>
       </c>
     </row>
     <row r="9">
@@ -3594,28 +3594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>735.8704337446989</v>
+        <v>839.3855064359291</v>
       </c>
       <c r="AB9" t="n">
-        <v>1006.850391761818</v>
+        <v>1148.484280980661</v>
       </c>
       <c r="AC9" t="n">
-        <v>910.7580034954699</v>
+        <v>1038.874553111678</v>
       </c>
       <c r="AD9" t="n">
-        <v>735870.4337446989</v>
+        <v>839385.5064359291</v>
       </c>
       <c r="AE9" t="n">
-        <v>1006850.391761818</v>
+        <v>1148484.280980661</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.34830472664455e-06</v>
+        <v>1.943802943926334e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.54050925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>910758.0034954699</v>
+        <v>1038874.553111678</v>
       </c>
     </row>
   </sheetData>
@@ -3891,28 +3891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1431.330678748856</v>
+        <v>1591.005703730199</v>
       </c>
       <c r="AB2" t="n">
-        <v>1958.409780517122</v>
+        <v>2176.88419406153</v>
       </c>
       <c r="AC2" t="n">
-        <v>1771.501899709957</v>
+        <v>1969.125421856453</v>
       </c>
       <c r="AD2" t="n">
-        <v>1431330.678748856</v>
+        <v>1591005.703730199</v>
       </c>
       <c r="AE2" t="n">
-        <v>1958409.780517122</v>
+        <v>2176884.19406153</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.98230346254699e-07</v>
+        <v>1.314975436431823e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>35</v>
       </c>
       <c r="AH2" t="n">
-        <v>1771501.899709957</v>
+        <v>1969125.421856453</v>
       </c>
     </row>
     <row r="3">
@@ -3997,28 +3997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>930.6054327877051</v>
+        <v>1048.193429502584</v>
       </c>
       <c r="AB3" t="n">
-        <v>1273.295408554287</v>
+        <v>1434.184493275876</v>
       </c>
       <c r="AC3" t="n">
-        <v>1151.773881843196</v>
+        <v>1297.307938128204</v>
       </c>
       <c r="AD3" t="n">
-        <v>930605.4327877051</v>
+        <v>1048193.429502584</v>
       </c>
       <c r="AE3" t="n">
-        <v>1273295.408554287</v>
+        <v>1434184.493275876</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.186611564298608e-06</v>
+        <v>1.737154691048657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.49305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1151773.881843196</v>
+        <v>1297307.938128204</v>
       </c>
     </row>
     <row r="4">
@@ -4103,28 +4103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>799.6090864387148</v>
+        <v>900.5329177527306</v>
       </c>
       <c r="AB4" t="n">
-        <v>1094.06042832867</v>
+        <v>1232.148866777706</v>
       </c>
       <c r="AC4" t="n">
-        <v>989.6448365724365</v>
+        <v>1114.554308264237</v>
       </c>
       <c r="AD4" t="n">
-        <v>799609.0864387149</v>
+        <v>900532.9177527305</v>
       </c>
       <c r="AE4" t="n">
-        <v>1094060.42832867</v>
+        <v>1232148.866777706</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297715481197589e-06</v>
+        <v>1.899806645775752e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.23032407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>989644.8365724365</v>
+        <v>1114554.308264237</v>
       </c>
     </row>
     <row r="5">
@@ -4209,28 +4209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>728.3003060882054</v>
+        <v>829.1387965476496</v>
       </c>
       <c r="AB5" t="n">
-        <v>996.4926091317423</v>
+        <v>1134.464280458581</v>
       </c>
       <c r="AC5" t="n">
-        <v>901.388753102369</v>
+        <v>1026.192601762231</v>
       </c>
       <c r="AD5" t="n">
-        <v>728300.3060882054</v>
+        <v>829138.7965476495</v>
       </c>
       <c r="AE5" t="n">
-        <v>996492.6091317423</v>
+        <v>1134464.280458581</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.356282729323311e-06</v>
+        <v>1.985546893793263e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.18287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>901388.753102369</v>
+        <v>1026192.601762231</v>
       </c>
     </row>
     <row r="6">
@@ -4315,28 +4315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>680.8022838268914</v>
+        <v>781.7260256323563</v>
       </c>
       <c r="AB6" t="n">
-        <v>931.5037196089608</v>
+        <v>1069.592035588449</v>
       </c>
       <c r="AC6" t="n">
-        <v>842.6023119831624</v>
+        <v>967.5116728937365</v>
       </c>
       <c r="AD6" t="n">
-        <v>680802.2838268914</v>
+        <v>781726.0256323563</v>
       </c>
       <c r="AE6" t="n">
-        <v>931503.7196089608</v>
+        <v>1069592.035588449</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.387522216959945e-06</v>
+        <v>2.031280328496481e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.66203703703703</v>
       </c>
       <c r="AH6" t="n">
-        <v>842602.3119831624</v>
+        <v>967511.6728937365</v>
       </c>
     </row>
     <row r="7">
@@ -4421,28 +4421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>678.8726163454536</v>
+        <v>779.7963581509183</v>
       </c>
       <c r="AB7" t="n">
-        <v>928.8634634299364</v>
+        <v>1066.951779409424</v>
       </c>
       <c r="AC7" t="n">
-        <v>840.2140381482413</v>
+        <v>965.1233990588154</v>
       </c>
       <c r="AD7" t="n">
-        <v>678872.6163454535</v>
+        <v>779796.3581509183</v>
       </c>
       <c r="AE7" t="n">
-        <v>928863.4634299363</v>
+        <v>1066951.779409424</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.389478080533716e-06</v>
+        <v>2.034143639190943e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.62731481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>840214.0381482414</v>
+        <v>965123.3990588153</v>
       </c>
     </row>
   </sheetData>
@@ -4718,28 +4718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>659.7981604530473</v>
+        <v>768.3695210232621</v>
       </c>
       <c r="AB2" t="n">
-        <v>902.7649513723428</v>
+        <v>1051.317076734889</v>
       </c>
       <c r="AC2" t="n">
-        <v>816.6063314519328</v>
+        <v>950.9808504640954</v>
       </c>
       <c r="AD2" t="n">
-        <v>659798.1604530474</v>
+        <v>768369.5210232621</v>
       </c>
       <c r="AE2" t="n">
-        <v>902764.9513723428</v>
+        <v>1051317.07673489</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.351548249820672e-06</v>
+        <v>2.09101196801292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.96064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>816606.3314519328</v>
+        <v>950980.8504640954</v>
       </c>
     </row>
     <row r="3">
@@ -4824,28 +4824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>551.6780697976898</v>
+        <v>644.8855346085679</v>
       </c>
       <c r="AB3" t="n">
-        <v>754.8302734159272</v>
+        <v>882.3608387933061</v>
       </c>
       <c r="AC3" t="n">
-        <v>682.7903315320528</v>
+        <v>798.1495587400873</v>
       </c>
       <c r="AD3" t="n">
-        <v>551678.0697976898</v>
+        <v>644885.5346085679</v>
       </c>
       <c r="AE3" t="n">
-        <v>754830.2734159272</v>
+        <v>882360.8387933061</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.48504198114323e-06</v>
+        <v>2.29754324788932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.62268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>682790.3315320528</v>
+        <v>798149.5587400873</v>
       </c>
     </row>
   </sheetData>
@@ -5121,28 +5121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>892.0410528693349</v>
+        <v>1012.277694690932</v>
       </c>
       <c r="AB2" t="n">
-        <v>1220.529922609606</v>
+        <v>1385.043000416182</v>
       </c>
       <c r="AC2" t="n">
-        <v>1104.044259820249</v>
+        <v>1252.856440376521</v>
       </c>
       <c r="AD2" t="n">
-        <v>892041.0528693348</v>
+        <v>1012277.694690932</v>
       </c>
       <c r="AE2" t="n">
-        <v>1220529.922609606</v>
+        <v>1385043.000416182</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.168057958212929e-06</v>
+        <v>1.765278947034875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.73263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1104044.259820249</v>
+        <v>1252856.440376521</v>
       </c>
     </row>
     <row r="3">
@@ -5227,28 +5227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>641.3198869808425</v>
+        <v>745.4282569243791</v>
       </c>
       <c r="AB3" t="n">
-        <v>877.4821624037811</v>
+        <v>1019.927827097656</v>
       </c>
       <c r="AC3" t="n">
-        <v>793.7364963779132</v>
+        <v>922.5873467571507</v>
       </c>
       <c r="AD3" t="n">
-        <v>641319.8869808426</v>
+        <v>745428.256924379</v>
       </c>
       <c r="AE3" t="n">
-        <v>877482.1624037811</v>
+        <v>1019927.827097656</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407527238722422e-06</v>
+        <v>2.127187426295401e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.8425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>793736.4963779133</v>
+        <v>922587.3467571507</v>
       </c>
     </row>
     <row r="4">
@@ -5333,28 +5333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>599.5424626248438</v>
+        <v>687.7786727625853</v>
       </c>
       <c r="AB4" t="n">
-        <v>820.3204473100195</v>
+        <v>941.0491227273352</v>
       </c>
       <c r="AC4" t="n">
-        <v>742.0302151457295</v>
+        <v>851.2367152249767</v>
       </c>
       <c r="AD4" t="n">
-        <v>599542.4626248438</v>
+        <v>687778.6727625853</v>
       </c>
       <c r="AE4" t="n">
-        <v>820320.4473100195</v>
+        <v>941049.1227273352</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.455838672644536e-06</v>
+        <v>2.200200204988552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>742030.2151457295</v>
+        <v>851236.7152249767</v>
       </c>
     </row>
   </sheetData>
@@ -5630,28 +5630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.3015445805494</v>
+        <v>624.4807550088127</v>
       </c>
       <c r="AB2" t="n">
-        <v>720.1089920805557</v>
+        <v>854.4421191495776</v>
       </c>
       <c r="AC2" t="n">
-        <v>651.382800555705</v>
+        <v>772.8953625149874</v>
       </c>
       <c r="AD2" t="n">
-        <v>526301.5445805494</v>
+        <v>624480.7550088128</v>
       </c>
       <c r="AE2" t="n">
-        <v>720108.9920805558</v>
+        <v>854442.1191495776</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.48378548513423e-06</v>
+        <v>2.345105139499217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.55439814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>651382.800555705</v>
+        <v>772895.3625149874</v>
       </c>
     </row>
     <row r="3">
@@ -5736,28 +5736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>527.8659519870326</v>
+        <v>626.0451624152961</v>
       </c>
       <c r="AB3" t="n">
-        <v>722.2494833108899</v>
+        <v>856.5826103799117</v>
       </c>
       <c r="AC3" t="n">
-        <v>653.3190063072143</v>
+        <v>774.8315682664967</v>
       </c>
       <c r="AD3" t="n">
-        <v>527865.9519870327</v>
+        <v>626045.1624152961</v>
       </c>
       <c r="AE3" t="n">
-        <v>722249.4833108899</v>
+        <v>856582.6103799117</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.486115115234797e-06</v>
+        <v>2.348787091895105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.51967592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>653319.0063072143</v>
+        <v>774831.5682664966</v>
       </c>
     </row>
   </sheetData>
@@ -6033,28 +6033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1546.868214541309</v>
+        <v>1699.318250939215</v>
       </c>
       <c r="AB2" t="n">
-        <v>2116.493334144695</v>
+        <v>2325.082199565244</v>
       </c>
       <c r="AC2" t="n">
-        <v>1914.498180850976</v>
+        <v>2103.179617712099</v>
       </c>
       <c r="AD2" t="n">
-        <v>1546868.21454131</v>
+        <v>1699318.250939215</v>
       </c>
       <c r="AE2" t="n">
-        <v>2116493.334144695</v>
+        <v>2325082.199565244</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.606564625850456e-07</v>
+        <v>1.254739256263214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.2037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1914498.180850976</v>
+        <v>2103179.617712099</v>
       </c>
     </row>
     <row r="3">
@@ -6139,28 +6139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>975.4405321565991</v>
+        <v>1093.993748436192</v>
       </c>
       <c r="AB3" t="n">
-        <v>1334.640769495793</v>
+        <v>1496.850510208305</v>
       </c>
       <c r="AC3" t="n">
-        <v>1207.264527635199</v>
+        <v>1353.99319835691</v>
       </c>
       <c r="AD3" t="n">
-        <v>975440.5321565991</v>
+        <v>1093993.748436192</v>
       </c>
       <c r="AE3" t="n">
-        <v>1334640.769495793</v>
+        <v>1496850.510208305</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.15570791175402e-06</v>
+        <v>1.684890718529239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.96180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1207264.527635199</v>
+        <v>1353993.19835691</v>
       </c>
     </row>
     <row r="4">
@@ -6245,28 +6245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>836.0857333640349</v>
+        <v>946.1647669911874</v>
       </c>
       <c r="AB4" t="n">
-        <v>1143.969385887981</v>
+        <v>1294.584376040872</v>
       </c>
       <c r="AC4" t="n">
-        <v>1034.790553269949</v>
+        <v>1171.031060152113</v>
       </c>
       <c r="AD4" t="n">
-        <v>836085.7333640349</v>
+        <v>946164.7669911875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1143969.385887981</v>
+        <v>1294584.376040871</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.269690378522399e-06</v>
+        <v>1.851064194006825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.53703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1034790.553269949</v>
+        <v>1171031.060152113</v>
       </c>
     </row>
     <row r="5">
@@ -6351,28 +6351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>761.0942173946567</v>
+        <v>862.6138170233484</v>
       </c>
       <c r="AB5" t="n">
-        <v>1041.362685346488</v>
+        <v>1180.266280287107</v>
       </c>
       <c r="AC5" t="n">
-        <v>941.9764922187269</v>
+        <v>1067.623323010633</v>
       </c>
       <c r="AD5" t="n">
-        <v>761094.2173946566</v>
+        <v>862613.8170233484</v>
       </c>
       <c r="AE5" t="n">
-        <v>1041362.685346488</v>
+        <v>1180266.280287107</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.331069694590397e-06</v>
+        <v>1.94054825732494e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.40856481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>941976.4922187269</v>
+        <v>1067623.323010633</v>
       </c>
     </row>
     <row r="6">
@@ -6457,28 +6457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>705.0951588614718</v>
+        <v>806.7000098361841</v>
       </c>
       <c r="AB6" t="n">
-        <v>964.7423029572815</v>
+        <v>1103.76254255055</v>
       </c>
       <c r="AC6" t="n">
-        <v>872.6686515873643</v>
+        <v>998.4209946299825</v>
       </c>
       <c r="AD6" t="n">
-        <v>705095.1588614718</v>
+        <v>806700.0098361841</v>
       </c>
       <c r="AE6" t="n">
-        <v>964742.3029572815</v>
+        <v>1103762.54255055</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.369351004874912e-06</v>
+        <v>1.996358054710185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.75462962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>872668.6515873643</v>
+        <v>998420.9946299825</v>
       </c>
     </row>
     <row r="7">
@@ -6563,28 +6563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>692.152203177259</v>
+        <v>793.7570541519714</v>
       </c>
       <c r="AB7" t="n">
-        <v>947.0331799872363</v>
+        <v>1086.053419580504</v>
       </c>
       <c r="AC7" t="n">
-        <v>856.6496624586698</v>
+        <v>982.4020055012883</v>
       </c>
       <c r="AD7" t="n">
-        <v>692152.2031772591</v>
+        <v>793757.0541519714</v>
       </c>
       <c r="AE7" t="n">
-        <v>947033.1799872363</v>
+        <v>1086053.419580504</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.378934792822371e-06</v>
+        <v>2.010330127754593e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.59837962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>856649.6624586699</v>
+        <v>982402.0055012882</v>
       </c>
     </row>
   </sheetData>
@@ -6860,28 +6860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.1281771227485</v>
+        <v>609.6172906757258</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.0846095568373</v>
+        <v>834.1052715192808</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.0786398026703</v>
+        <v>754.499435079581</v>
       </c>
       <c r="AD2" t="n">
-        <v>513128.1771227486</v>
+        <v>609617.2906757258</v>
       </c>
       <c r="AE2" t="n">
-        <v>702084.6095568374</v>
+        <v>834105.2715192807</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.476725085333126e-06</v>
+        <v>2.366060465997215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.2488425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>635078.6398026703</v>
+        <v>754499.435079581</v>
       </c>
     </row>
   </sheetData>
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1144.863143215488</v>
+        <v>1284.657079479884</v>
       </c>
       <c r="AB2" t="n">
-        <v>1566.452260344648</v>
+        <v>1757.724491214798</v>
       </c>
       <c r="AC2" t="n">
-        <v>1416.952255146909</v>
+        <v>1589.969732755075</v>
       </c>
       <c r="AD2" t="n">
-        <v>1144863.143215487</v>
+        <v>1284657.079479884</v>
       </c>
       <c r="AE2" t="n">
-        <v>1566452.260344648</v>
+        <v>1757724.491214798</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02139891193797e-06</v>
+        <v>1.516617225946539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.71296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>1416952.255146909</v>
+        <v>1589969.732755075</v>
       </c>
     </row>
     <row r="3">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>789.3384755860612</v>
+        <v>896.1996500711167</v>
       </c>
       <c r="AB3" t="n">
-        <v>1080.007725452697</v>
+        <v>1226.219898765444</v>
       </c>
       <c r="AC3" t="n">
-        <v>976.9333039358543</v>
+        <v>1109.191192637706</v>
       </c>
       <c r="AD3" t="n">
-        <v>789338.4755860612</v>
+        <v>896199.6500711167</v>
       </c>
       <c r="AE3" t="n">
-        <v>1080007.725452697</v>
+        <v>1226219.898765444</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.289413269934298e-06</v>
+        <v>1.91457652215041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.12152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>976933.3039358542</v>
+        <v>1109191.192637706</v>
       </c>
     </row>
     <row r="4">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>677.8456969657038</v>
+        <v>776.4736586287866</v>
       </c>
       <c r="AB4" t="n">
-        <v>927.4583870300773</v>
+        <v>1062.405515336086</v>
       </c>
       <c r="AC4" t="n">
-        <v>838.9430602679478</v>
+        <v>961.0110240479152</v>
       </c>
       <c r="AD4" t="n">
-        <v>677845.6969657039</v>
+        <v>776473.6586287866</v>
       </c>
       <c r="AE4" t="n">
-        <v>927458.3870300774</v>
+        <v>1062405.515336086</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.390002618580789e-06</v>
+        <v>2.063935932191837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.30439814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>838943.0602679477</v>
+        <v>961011.0240479151</v>
       </c>
     </row>
     <row r="5">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>635.6206055525148</v>
+        <v>734.333818561618</v>
       </c>
       <c r="AB5" t="n">
-        <v>869.6841541189917</v>
+        <v>1004.74792707765</v>
       </c>
       <c r="AC5" t="n">
-        <v>786.6827190592508</v>
+        <v>908.8561950899305</v>
       </c>
       <c r="AD5" t="n">
-        <v>635620.6055525148</v>
+        <v>734333.8185616181</v>
       </c>
       <c r="AE5" t="n">
-        <v>869684.1541189917</v>
+        <v>1004747.92707765</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.422748733749514e-06</v>
+        <v>2.112558778532536e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.76620370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>786682.7190592508</v>
+        <v>908856.1950899304</v>
       </c>
     </row>
     <row r="6">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>638.2817180165806</v>
+        <v>736.9949310256837</v>
       </c>
       <c r="AB6" t="n">
-        <v>873.3252055923225</v>
+        <v>1008.388978550981</v>
       </c>
       <c r="AC6" t="n">
-        <v>789.9762736902148</v>
+        <v>912.1497497208945</v>
       </c>
       <c r="AD6" t="n">
-        <v>638281.7180165806</v>
+        <v>736994.9310256838</v>
       </c>
       <c r="AE6" t="n">
-        <v>873325.2055923225</v>
+        <v>1008388.978550981</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.422188971097057e-06</v>
+        <v>2.111727618766029e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.77777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>789976.2736902148</v>
+        <v>912149.7497208945</v>
       </c>
     </row>
   </sheetData>
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1329.471138508304</v>
+        <v>1479.753566988801</v>
       </c>
       <c r="AB2" t="n">
-        <v>1819.041063834233</v>
+        <v>2024.664112474072</v>
       </c>
       <c r="AC2" t="n">
-        <v>1645.434337742061</v>
+        <v>1831.433011213475</v>
       </c>
       <c r="AD2" t="n">
-        <v>1329471.138508304</v>
+        <v>1479753.566988801</v>
       </c>
       <c r="AE2" t="n">
-        <v>1819041.063834233</v>
+        <v>2024664.112474072</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.380240886552023e-07</v>
+        <v>1.379310466417121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.83680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1645434.337742061</v>
+        <v>1831433.011213475</v>
       </c>
     </row>
     <row r="3">
@@ -7984,28 +7984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>885.5658107860078</v>
+        <v>994.1411390213943</v>
       </c>
       <c r="AB3" t="n">
-        <v>1211.670210723679</v>
+        <v>1360.227764820755</v>
       </c>
       <c r="AC3" t="n">
-        <v>1096.030106402031</v>
+        <v>1230.409536037919</v>
       </c>
       <c r="AD3" t="n">
-        <v>885565.8107860078</v>
+        <v>994141.1390213943</v>
       </c>
       <c r="AE3" t="n">
-        <v>1211670.210723679</v>
+        <v>1360227.764820755</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.219656182161866e-06</v>
+        <v>1.793434260199026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.02430555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1096030.106402031</v>
+        <v>1230409.536037919</v>
       </c>
     </row>
     <row r="4">
@@ -8090,28 +8090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>752.8992019974443</v>
+        <v>861.3890998697082</v>
       </c>
       <c r="AB4" t="n">
-        <v>1030.149903741459</v>
+        <v>1178.590568246789</v>
       </c>
       <c r="AC4" t="n">
-        <v>931.8338427528439</v>
+        <v>1066.107538575566</v>
       </c>
       <c r="AD4" t="n">
-        <v>752899.2019974443</v>
+        <v>861389.0998697082</v>
       </c>
       <c r="AE4" t="n">
-        <v>1030149.903741459</v>
+        <v>1178590.568246789</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.328524674004266e-06</v>
+        <v>1.953519115244222e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>931833.8427528439</v>
+        <v>1066107.538575566</v>
       </c>
     </row>
     <row r="5">
@@ -8196,28 +8196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>682.2469231819668</v>
+        <v>782.4636557871556</v>
       </c>
       <c r="AB5" t="n">
-        <v>933.4803389075653</v>
+        <v>1070.601293708191</v>
       </c>
       <c r="AC5" t="n">
-        <v>844.3902855101107</v>
+        <v>968.4246088350334</v>
       </c>
       <c r="AD5" t="n">
-        <v>682246.9231819669</v>
+        <v>782463.6557871556</v>
       </c>
       <c r="AE5" t="n">
-        <v>933480.3389075653</v>
+        <v>1070601.293708191</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385783467698708e-06</v>
+        <v>2.03771487779696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.90509259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>844390.2855101108</v>
+        <v>968424.6088350334</v>
       </c>
     </row>
     <row r="6">
@@ -8302,28 +8302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>663.8947621234704</v>
+        <v>764.1114947286593</v>
       </c>
       <c r="AB6" t="n">
-        <v>908.3701025071261</v>
+        <v>1045.491057307752</v>
       </c>
       <c r="AC6" t="n">
-        <v>821.6765348292914</v>
+        <v>945.710858154214</v>
       </c>
       <c r="AD6" t="n">
-        <v>663894.7621234704</v>
+        <v>764111.4947286593</v>
       </c>
       <c r="AE6" t="n">
-        <v>908370.1025071262</v>
+        <v>1045491.057307752</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.400262702885808e-06</v>
+        <v>2.05900576028156e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.66782407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>821676.5348292914</v>
+        <v>945710.858154214</v>
       </c>
     </row>
     <row r="7">
@@ -8408,28 +8408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>666.967137316051</v>
+        <v>767.1838699212398</v>
       </c>
       <c r="AB7" t="n">
-        <v>912.573861789242</v>
+        <v>1049.694816589868</v>
       </c>
       <c r="AC7" t="n">
-        <v>825.4790932255355</v>
+        <v>949.5134165504579</v>
       </c>
       <c r="AD7" t="n">
-        <v>666967.1373160509</v>
+        <v>767183.8699212398</v>
       </c>
       <c r="AE7" t="n">
-        <v>912573.861789242</v>
+        <v>1049694.816589867</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.399769092595339e-06</v>
+        <v>2.058279934742312e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.67361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>825479.0932255355</v>
+        <v>949513.4165504579</v>
       </c>
     </row>
   </sheetData>
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1778.371776432939</v>
+        <v>1949.926339744951</v>
       </c>
       <c r="AB2" t="n">
-        <v>2433.246720741161</v>
+        <v>2667.975242717834</v>
       </c>
       <c r="AC2" t="n">
-        <v>2201.021068796845</v>
+        <v>2413.347430079615</v>
       </c>
       <c r="AD2" t="n">
-        <v>1778371.776432939</v>
+        <v>1949926.339744951</v>
       </c>
       <c r="AE2" t="n">
-        <v>2433246.720741161</v>
+        <v>2667975.242717834</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.906853708191545e-07</v>
+        <v>1.143941855923723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.74421296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>2201021.068796845</v>
+        <v>2413347.430079615</v>
       </c>
     </row>
     <row r="3">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1076.009393329953</v>
+        <v>1204.568639745747</v>
       </c>
       <c r="AB3" t="n">
-        <v>1472.243522138198</v>
+        <v>1648.143954717955</v>
       </c>
       <c r="AC3" t="n">
-        <v>1331.734666692088</v>
+        <v>1490.847408864242</v>
       </c>
       <c r="AD3" t="n">
-        <v>1076009.393329953</v>
+        <v>1204568.639745747</v>
       </c>
       <c r="AE3" t="n">
-        <v>1472243.522138198</v>
+        <v>1648143.954717956</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.097780030441672e-06</v>
+        <v>1.588237966409364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.90509259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1331734.666692088</v>
+        <v>1490847.408864242</v>
       </c>
     </row>
     <row r="4">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>917.7241468951157</v>
+        <v>1029.119492402803</v>
       </c>
       <c r="AB4" t="n">
-        <v>1255.67066491382</v>
+        <v>1408.08669105324</v>
       </c>
       <c r="AC4" t="n">
-        <v>1135.831218999292</v>
+        <v>1273.700873521201</v>
       </c>
       <c r="AD4" t="n">
-        <v>917724.1468951157</v>
+        <v>1029119.492402803</v>
       </c>
       <c r="AE4" t="n">
-        <v>1255670.664913821</v>
+        <v>1408086.69105324</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.217155734190814e-06</v>
+        <v>1.760947452557462e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.16782407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>1135831.218999292</v>
+        <v>1273700.873521201</v>
       </c>
     </row>
     <row r="5">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>828.8796473966993</v>
+        <v>940.2749033958354</v>
       </c>
       <c r="AB5" t="n">
-        <v>1134.109701157397</v>
+        <v>1286.525604827267</v>
       </c>
       <c r="AC5" t="n">
-        <v>1025.871863011897</v>
+        <v>1163.741406752579</v>
       </c>
       <c r="AD5" t="n">
-        <v>828879.6473966993</v>
+        <v>940274.9033958354</v>
       </c>
       <c r="AE5" t="n">
-        <v>1134109.701157397</v>
+        <v>1286525.604827267</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.281846248595006e-06</v>
+        <v>1.854539910239491e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.90046296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>1025871.863011897</v>
+        <v>1163741.406752579</v>
       </c>
     </row>
     <row r="6">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>777.7259523925391</v>
+        <v>880.5393026918969</v>
       </c>
       <c r="AB6" t="n">
-        <v>1064.118958910954</v>
+        <v>1204.79272059543</v>
       </c>
       <c r="AC6" t="n">
-        <v>962.5609389728306</v>
+        <v>1089.808994279005</v>
       </c>
       <c r="AD6" t="n">
-        <v>777725.952392539</v>
+        <v>880539.3026918969</v>
       </c>
       <c r="AE6" t="n">
-        <v>1064118.958910954</v>
+        <v>1204792.720595429</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324937966045916e-06</v>
+        <v>1.916883822312463e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.11921296296297</v>
       </c>
       <c r="AH6" t="n">
-        <v>962560.9389728307</v>
+        <v>1089808.994279005</v>
       </c>
     </row>
     <row r="7">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>732.9167095534883</v>
+        <v>835.8153111988669</v>
       </c>
       <c r="AB7" t="n">
-        <v>1002.80897601429</v>
+        <v>1143.599382351415</v>
       </c>
       <c r="AC7" t="n">
-        <v>907.1022947947224</v>
+        <v>1034.455862351609</v>
       </c>
       <c r="AD7" t="n">
-        <v>732916.7095534883</v>
+        <v>835815.3111988669</v>
       </c>
       <c r="AE7" t="n">
-        <v>1002808.97601429</v>
+        <v>1143599.382351415</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.350401253630545e-06</v>
+        <v>1.95372340671922e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.68518518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>907102.2947947225</v>
+        <v>1034455.862351609</v>
       </c>
     </row>
     <row r="8">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>721.075972544167</v>
+        <v>823.9745741895458</v>
       </c>
       <c r="AB8" t="n">
-        <v>986.607957261687</v>
+        <v>1127.398363598812</v>
       </c>
       <c r="AC8" t="n">
-        <v>892.4474785335956</v>
+        <v>1019.801046090482</v>
       </c>
       <c r="AD8" t="n">
-        <v>721075.9725441671</v>
+        <v>823974.5741895458</v>
       </c>
       <c r="AE8" t="n">
-        <v>986607.957261687</v>
+        <v>1127398.363598812</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.357600852614972e-06</v>
+        <v>1.964139588588905e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.56365740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>892447.4785335956</v>
+        <v>1019801.046090482</v>
       </c>
     </row>
     <row r="9">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>723.5849213223277</v>
+        <v>826.4835229677062</v>
       </c>
       <c r="AB9" t="n">
-        <v>990.0408116669745</v>
+        <v>1130.831218004099</v>
       </c>
       <c r="AC9" t="n">
-        <v>895.552706132484</v>
+        <v>1022.90627368937</v>
       </c>
       <c r="AD9" t="n">
-        <v>723584.9213223277</v>
+        <v>826483.5229677062</v>
       </c>
       <c r="AE9" t="n">
-        <v>990040.8116669744</v>
+        <v>1130831.218004099</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.357389099703665e-06</v>
+        <v>1.96383323029862e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.56944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>895552.706132484</v>
+        <v>1022906.27368937</v>
       </c>
     </row>
   </sheetData>
@@ -9744,28 +9744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>972.7408066884437</v>
+        <v>1094.177945186428</v>
       </c>
       <c r="AB2" t="n">
-        <v>1330.946886006781</v>
+        <v>1497.102536328165</v>
       </c>
       <c r="AC2" t="n">
-        <v>1203.92318320198</v>
+        <v>1354.221171457611</v>
       </c>
       <c r="AD2" t="n">
-        <v>972740.8066884438</v>
+        <v>1094177.945186428</v>
       </c>
       <c r="AE2" t="n">
-        <v>1330946.886006781</v>
+        <v>1497102.536328165</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.116499406356356e-06</v>
+        <v>1.676629980104341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1203923.18320198</v>
+        <v>1354221.171457611</v>
       </c>
     </row>
     <row r="3">
@@ -9850,28 +9850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>692.8201347736898</v>
+        <v>789.8845942260563</v>
       </c>
       <c r="AB3" t="n">
-        <v>947.9470734645349</v>
+        <v>1080.754949068993</v>
       </c>
       <c r="AC3" t="n">
-        <v>857.4763352251528</v>
+        <v>977.6092135789453</v>
       </c>
       <c r="AD3" t="n">
-        <v>692820.1347736898</v>
+        <v>789884.5942260562</v>
       </c>
       <c r="AE3" t="n">
-        <v>947947.0734645349</v>
+        <v>1080754.949068993</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.367003043360855e-06</v>
+        <v>2.052807437553758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.24768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>857476.3352251528</v>
+        <v>977609.2135789453</v>
       </c>
     </row>
     <row r="4">
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>607.4916232605968</v>
+        <v>704.5559932044125</v>
       </c>
       <c r="AB4" t="n">
-        <v>831.1968395840735</v>
+        <v>964.0045927189828</v>
       </c>
       <c r="AC4" t="n">
-        <v>751.8685798062601</v>
+        <v>872.0013473788259</v>
       </c>
       <c r="AD4" t="n">
-        <v>607491.6232605969</v>
+        <v>704555.9932044125</v>
       </c>
       <c r="AE4" t="n">
-        <v>831196.8395840735</v>
+        <v>964004.5927189828</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.443688998996205e-06</v>
+        <v>2.16796555724392e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.95717592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>751868.5798062601</v>
+        <v>872001.3473788259</v>
       </c>
     </row>
     <row r="5">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>607.949449655497</v>
+        <v>705.0138195993125</v>
       </c>
       <c r="AB5" t="n">
-        <v>831.8232578554509</v>
+        <v>964.6310109903603</v>
       </c>
       <c r="AC5" t="n">
-        <v>752.4352135970008</v>
+        <v>872.5679811695668</v>
       </c>
       <c r="AD5" t="n">
-        <v>607949.449655497</v>
+        <v>705013.8195993125</v>
       </c>
       <c r="AE5" t="n">
-        <v>831823.257855451</v>
+        <v>964631.0109903603</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.445178046678445e-06</v>
+        <v>2.170201637237904e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.93402777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>752435.2135970008</v>
+        <v>872567.9811695667</v>
       </c>
     </row>
   </sheetData>
@@ -10359,28 +10359,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>735.5082616703523</v>
+        <v>845.4376087049069</v>
       </c>
       <c r="AB2" t="n">
-        <v>1006.354851951793</v>
+        <v>1156.765034304984</v>
       </c>
       <c r="AC2" t="n">
-        <v>910.3097573094188</v>
+        <v>1046.365002960838</v>
       </c>
       <c r="AD2" t="n">
-        <v>735508.2616703523</v>
+        <v>845437.6087049069</v>
       </c>
       <c r="AE2" t="n">
-        <v>1006354.851951793</v>
+        <v>1156765.034304984</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.28579733858023e-06</v>
+        <v>1.972087487768204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.85185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>910309.7573094189</v>
+        <v>1046365.002960838</v>
       </c>
     </row>
     <row r="3">
@@ -10465,28 +10465,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>568.3023635302724</v>
+        <v>662.4300752346454</v>
       </c>
       <c r="AB3" t="n">
-        <v>777.5763655129246</v>
+        <v>906.3660532884106</v>
       </c>
       <c r="AC3" t="n">
-        <v>703.3655685236536</v>
+        <v>819.8637492553094</v>
       </c>
       <c r="AD3" t="n">
-        <v>568302.3635302724</v>
+        <v>662430.0752346454</v>
       </c>
       <c r="AE3" t="n">
-        <v>777576.3655129245</v>
+        <v>906366.0532884107</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.47544841914194e-06</v>
+        <v>2.262964216001634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.39699074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>703365.5685236536</v>
+        <v>819863.7492553093</v>
       </c>
     </row>
     <row r="4">
@@ -10571,28 +10571,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>571.150690416044</v>
+        <v>665.278402120417</v>
       </c>
       <c r="AB4" t="n">
-        <v>781.4735720173506</v>
+        <v>910.2632597928368</v>
       </c>
       <c r="AC4" t="n">
-        <v>706.890831109061</v>
+        <v>823.389011840717</v>
       </c>
       <c r="AD4" t="n">
-        <v>571150.690416044</v>
+        <v>665278.402120417</v>
       </c>
       <c r="AE4" t="n">
-        <v>781473.5720173507</v>
+        <v>910263.2597928368</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.475925678860246e-06</v>
+        <v>2.263696211542958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.39120370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>706890.831109061</v>
+        <v>823389.0118407169</v>
       </c>
     </row>
   </sheetData>
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>589.9321046564235</v>
+        <v>681.9513152460713</v>
       </c>
       <c r="AB2" t="n">
-        <v>807.171131558556</v>
+        <v>933.0758750883714</v>
       </c>
       <c r="AC2" t="n">
-        <v>730.1358516344051</v>
+        <v>844.024423150152</v>
       </c>
       <c r="AD2" t="n">
-        <v>589932.1046564234</v>
+        <v>681951.3152460713</v>
       </c>
       <c r="AE2" t="n">
-        <v>807171.131558556</v>
+        <v>933075.8750883713</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.426370272445849e-06</v>
+        <v>2.228675415021605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.04050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>730135.8516344051</v>
+        <v>844024.423150152</v>
       </c>
     </row>
     <row r="3">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>535.9481380447883</v>
+        <v>635.4648375068333</v>
       </c>
       <c r="AB3" t="n">
-        <v>733.3078868359952</v>
+        <v>869.4710254068889</v>
       </c>
       <c r="AC3" t="n">
-        <v>663.3220113204503</v>
+        <v>786.4899310523032</v>
       </c>
       <c r="AD3" t="n">
-        <v>535948.1380447883</v>
+        <v>635464.8375068333</v>
       </c>
       <c r="AE3" t="n">
-        <v>733307.8868359952</v>
+        <v>869471.0254068889</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.489502569798512e-06</v>
+        <v>2.327318384327498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.97569444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>663322.0113204503</v>
+        <v>786489.9310523032</v>
       </c>
     </row>
   </sheetData>
@@ -19084,28 +19084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>501.1279404199456</v>
+        <v>603.1271857936798</v>
       </c>
       <c r="AB2" t="n">
-        <v>685.665356286983</v>
+        <v>825.2252236964456</v>
       </c>
       <c r="AC2" t="n">
-        <v>620.2264170203241</v>
+        <v>746.4668865577319</v>
       </c>
       <c r="AD2" t="n">
-        <v>501127.9404199456</v>
+        <v>603127.1857936798</v>
       </c>
       <c r="AE2" t="n">
-        <v>685665.356286983</v>
+        <v>825225.2236964456</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.440252283608922e-06</v>
+        <v>2.347144772233932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>620226.4170203242</v>
+        <v>746466.8865577319</v>
       </c>
     </row>
   </sheetData>
@@ -19381,28 +19381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1236.335867529673</v>
+        <v>1377.302852541862</v>
       </c>
       <c r="AB2" t="n">
-        <v>1691.609277243103</v>
+        <v>1884.486525161241</v>
       </c>
       <c r="AC2" t="n">
-        <v>1530.164462011552</v>
+        <v>1704.633776093301</v>
       </c>
       <c r="AD2" t="n">
-        <v>1236335.867529673</v>
+        <v>1377302.852541862</v>
       </c>
       <c r="AE2" t="n">
-        <v>1691609.277243103</v>
+        <v>1884486.525161241</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.779652609519115e-07</v>
+        <v>1.444827104260768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.77777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1530164.462011552</v>
+        <v>1704633.776093301</v>
       </c>
     </row>
     <row r="3">
@@ -19487,28 +19487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>833.6973590444835</v>
+        <v>941.5609023543592</v>
       </c>
       <c r="AB3" t="n">
-        <v>1140.701506776333</v>
+        <v>1288.28516533659</v>
       </c>
       <c r="AC3" t="n">
-        <v>1031.834555954219</v>
+        <v>1165.333037276451</v>
       </c>
       <c r="AD3" t="n">
-        <v>833697.3590444835</v>
+        <v>941560.9023543592</v>
       </c>
       <c r="AE3" t="n">
-        <v>1140701.506776333</v>
+        <v>1288285.16533659</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.252936631972318e-06</v>
+        <v>1.851064529667194e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.58449074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1031834.555954219</v>
+        <v>1165333.037276451</v>
       </c>
     </row>
     <row r="4">
@@ -19593,28 +19593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>717.7733100754201</v>
+        <v>817.3396577460746</v>
       </c>
       <c r="AB4" t="n">
-        <v>982.0891087687623</v>
+        <v>1118.320178209</v>
       </c>
       <c r="AC4" t="n">
-        <v>888.3599025985922</v>
+        <v>1011.58926997296</v>
       </c>
       <c r="AD4" t="n">
-        <v>717773.3100754201</v>
+        <v>817339.6577460746</v>
       </c>
       <c r="AE4" t="n">
-        <v>982089.1087687623</v>
+        <v>1118320.178209</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.357186454748387e-06</v>
+        <v>2.005081216737076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.62268518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>888359.9025985921</v>
+        <v>1011589.26997296</v>
       </c>
     </row>
     <row r="5">
@@ -19699,28 +19699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>654.3030010072852</v>
+        <v>753.7840078233678</v>
       </c>
       <c r="AB5" t="n">
-        <v>895.2462317893261</v>
+        <v>1031.360534107366</v>
       </c>
       <c r="AC5" t="n">
-        <v>809.8051879133299</v>
+        <v>932.9289322557589</v>
       </c>
       <c r="AD5" t="n">
-        <v>654303.0010072852</v>
+        <v>753784.0078233678</v>
       </c>
       <c r="AE5" t="n">
-        <v>895246.2317893261</v>
+        <v>1031360.534107366</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.407649572999715e-06</v>
+        <v>2.079634458990351e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.77199074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>809805.1879133298</v>
+        <v>932928.9322557589</v>
       </c>
     </row>
     <row r="6">
@@ -19805,28 +19805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>650.7131267230997</v>
+        <v>750.1941335391823</v>
       </c>
       <c r="AB6" t="n">
-        <v>890.3344074196275</v>
+        <v>1026.448709737667</v>
       </c>
       <c r="AC6" t="n">
-        <v>805.3621411676866</v>
+        <v>928.4858855101156</v>
       </c>
       <c r="AD6" t="n">
-        <v>650713.1267230996</v>
+        <v>750194.1335391823</v>
       </c>
       <c r="AE6" t="n">
-        <v>890334.4074196275</v>
+        <v>1026448.709737667</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410640800645787e-06</v>
+        <v>2.08405364129735e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.72569444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>805362.1411676866</v>
+        <v>928485.8855101157</v>
       </c>
     </row>
   </sheetData>
@@ -20102,28 +20102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1658.522799843496</v>
+        <v>1820.40288161633</v>
       </c>
       <c r="AB2" t="n">
-        <v>2269.264063607801</v>
+        <v>2490.755533134568</v>
       </c>
       <c r="AC2" t="n">
-        <v>2052.688686309188</v>
+        <v>2253.041320849551</v>
       </c>
       <c r="AD2" t="n">
-        <v>1658522.799843496</v>
+        <v>1820402.88161633</v>
       </c>
       <c r="AE2" t="n">
-        <v>2269264.063607801</v>
+        <v>2490755.533134568</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.251257534702619e-07</v>
+        <v>1.198222053186894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.43634259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>2052688.686309188</v>
+        <v>2253041.320849551</v>
       </c>
     </row>
     <row r="3">
@@ -20208,28 +20208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1028.125780362135</v>
+        <v>1147.360947931436</v>
       </c>
       <c r="AB3" t="n">
-        <v>1406.727050399717</v>
+        <v>1569.869866952375</v>
       </c>
       <c r="AC3" t="n">
-        <v>1272.470995063382</v>
+        <v>1420.043690176636</v>
       </c>
       <c r="AD3" t="n">
-        <v>1028125.780362135</v>
+        <v>1147360.947931436</v>
       </c>
       <c r="AE3" t="n">
-        <v>1406727.050399716</v>
+        <v>1569869.866952375</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.127301771738806e-06</v>
+        <v>1.63703270418256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.40162037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1272470.995063382</v>
+        <v>1420043.690176636</v>
       </c>
     </row>
     <row r="4">
@@ -20314,28 +20314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>872.4113729543814</v>
+        <v>983.2028090289962</v>
       </c>
       <c r="AB4" t="n">
-        <v>1193.671728549608</v>
+        <v>1345.261459160094</v>
       </c>
       <c r="AC4" t="n">
-        <v>1079.749374105626</v>
+        <v>1216.87159358417</v>
       </c>
       <c r="AD4" t="n">
-        <v>872411.3729543814</v>
+        <v>983202.8090289962</v>
       </c>
       <c r="AE4" t="n">
-        <v>1193671.728549608</v>
+        <v>1345261.459160094</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243400135938432e-06</v>
+        <v>1.805627151438447e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1079749.374105626</v>
+        <v>1216871.59358417</v>
       </c>
     </row>
     <row r="5">
@@ -20420,28 +20420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>795.9075191937778</v>
+        <v>898.2553132822575</v>
       </c>
       <c r="AB5" t="n">
-        <v>1088.995780722526</v>
+        <v>1229.032547860387</v>
       </c>
       <c r="AC5" t="n">
-        <v>985.0635518255449</v>
+        <v>1111.735406450606</v>
       </c>
       <c r="AD5" t="n">
-        <v>795907.5191937778</v>
+        <v>898255.3132822575</v>
       </c>
       <c r="AE5" t="n">
-        <v>1088995.780722526</v>
+        <v>1229032.547860387</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.30579967053584e-06</v>
+        <v>1.896241822170461e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.65740740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>985063.5518255449</v>
+        <v>1111735.406450606</v>
       </c>
     </row>
     <row r="6">
@@ -20526,28 +20526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>737.3052647349621</v>
+        <v>839.5677179688699</v>
       </c>
       <c r="AB6" t="n">
-        <v>1008.813590822972</v>
+        <v>1148.733590838636</v>
       </c>
       <c r="AC6" t="n">
-        <v>912.5338375935939</v>
+        <v>1039.100069186717</v>
       </c>
       <c r="AD6" t="n">
-        <v>737305.264734962</v>
+        <v>839567.71796887</v>
       </c>
       <c r="AE6" t="n">
-        <v>1008813.590822972</v>
+        <v>1148733.590838636</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.346687646157409e-06</v>
+        <v>1.955618073479891e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.93981481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>912533.837593594</v>
+        <v>1039100.069186717</v>
       </c>
     </row>
     <row r="7">
@@ -20632,28 +20632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>706.886761092544</v>
+        <v>809.1492143264521</v>
       </c>
       <c r="AB7" t="n">
-        <v>967.1936521697464</v>
+        <v>1107.113652185411</v>
       </c>
       <c r="AC7" t="n">
-        <v>874.8860474714818</v>
+        <v>1001.452279064604</v>
       </c>
       <c r="AD7" t="n">
-        <v>706886.7610925441</v>
+        <v>809149.2143264521</v>
       </c>
       <c r="AE7" t="n">
-        <v>967193.6521697465</v>
+        <v>1107113.65218541</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.367718798108974e-06</v>
+        <v>1.986158860706934e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.58680555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>874886.0474714818</v>
+        <v>1001452.279064604</v>
       </c>
     </row>
     <row r="8">
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>707.1315224898779</v>
+        <v>809.393975723786</v>
       </c>
       <c r="AB8" t="n">
-        <v>967.5285455116895</v>
+        <v>1107.448545527353</v>
       </c>
       <c r="AC8" t="n">
-        <v>875.1889790628953</v>
+        <v>1001.755210656018</v>
       </c>
       <c r="AD8" t="n">
-        <v>707131.5224898779</v>
+        <v>809393.9757237859</v>
       </c>
       <c r="AE8" t="n">
-        <v>967528.5455116895</v>
+        <v>1107448.545527353</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.369640426206071e-06</v>
+        <v>1.988949389489101e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>875188.9790628953</v>
+        <v>1001755.210656018</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>502.749958454015</v>
+        <v>609.4849180079316</v>
       </c>
       <c r="AB2" t="n">
-        <v>687.8846729195822</v>
+        <v>833.9241533953348</v>
       </c>
       <c r="AC2" t="n">
-        <v>622.2339251883384</v>
+        <v>754.3356026151835</v>
       </c>
       <c r="AD2" t="n">
-        <v>502749.958454015</v>
+        <v>609484.9180079316</v>
       </c>
       <c r="AE2" t="n">
-        <v>687884.6729195821</v>
+        <v>833924.1533953347</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.339118366464085e-06</v>
+        <v>2.232230533506501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.64120370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>622233.9251883384</v>
+        <v>754335.6026151835</v>
       </c>
     </row>
   </sheetData>
@@ -21332,28 +21332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>814.0217035310724</v>
+        <v>932.9891364591673</v>
       </c>
       <c r="AB2" t="n">
-        <v>1113.780406874225</v>
+        <v>1276.556897079166</v>
       </c>
       <c r="AC2" t="n">
-        <v>1007.482768042767</v>
+        <v>1154.724098480788</v>
       </c>
       <c r="AD2" t="n">
-        <v>814021.7035310724</v>
+        <v>932989.1364591673</v>
       </c>
       <c r="AE2" t="n">
-        <v>1113780.406874225</v>
+        <v>1276556.897079166</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.223611518732813e-06</v>
+        <v>1.862222472774588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.80092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>1007482.768042767</v>
+        <v>1154724.098480788</v>
       </c>
     </row>
     <row r="3">
@@ -21438,28 +21438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>597.4319841552863</v>
+        <v>692.5718836644846</v>
       </c>
       <c r="AB3" t="n">
-        <v>817.4327975602321</v>
+        <v>947.6074053448546</v>
       </c>
       <c r="AC3" t="n">
-        <v>739.4181586352198</v>
+        <v>857.1690845540874</v>
       </c>
       <c r="AD3" t="n">
-        <v>597431.9841552862</v>
+        <v>692571.8836644846</v>
       </c>
       <c r="AE3" t="n">
-        <v>817432.7975602321</v>
+        <v>947607.4053448546</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.45012132855685e-06</v>
+        <v>2.206949252230747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.46064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>739418.1586352198</v>
+        <v>857169.0845540874</v>
       </c>
     </row>
     <row r="4">
@@ -21544,28 +21544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>585.066062414194</v>
+        <v>680.2059619233922</v>
       </c>
       <c r="AB4" t="n">
-        <v>800.5131978881051</v>
+        <v>930.6878056727276</v>
       </c>
       <c r="AC4" t="n">
-        <v>724.1133418089934</v>
+        <v>841.8642677278608</v>
       </c>
       <c r="AD4" t="n">
-        <v>585066.062414194</v>
+        <v>680205.9619233923</v>
       </c>
       <c r="AE4" t="n">
-        <v>800513.1978881051</v>
+        <v>930687.8056727275</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466875882359044e-06</v>
+        <v>2.232448118606299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.19444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>724113.3418089934</v>
+        <v>841864.2677278608</v>
       </c>
     </row>
   </sheetData>
@@ -21841,28 +21841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1056.936527931437</v>
+        <v>1187.510725525364</v>
       </c>
       <c r="AB2" t="n">
-        <v>1446.147186264513</v>
+        <v>1624.804563939564</v>
       </c>
       <c r="AC2" t="n">
-        <v>1308.128928487751</v>
+        <v>1469.7354967847</v>
       </c>
       <c r="AD2" t="n">
-        <v>1056936.527931437</v>
+        <v>1187510.725525364</v>
       </c>
       <c r="AE2" t="n">
-        <v>1446147.186264513</v>
+        <v>1624804.563939564</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.067705316783093e-06</v>
+        <v>1.593988685488936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1308128.928487751</v>
+        <v>1469735.4967847</v>
       </c>
     </row>
     <row r="3">
@@ -21947,28 +21947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>738.0982544493352</v>
+        <v>844.1737885841688</v>
       </c>
       <c r="AB3" t="n">
-        <v>1009.898594334415</v>
+        <v>1155.035819859982</v>
       </c>
       <c r="AC3" t="n">
-        <v>913.5152898927167</v>
+        <v>1044.800822315499</v>
       </c>
       <c r="AD3" t="n">
-        <v>738098.2544493352</v>
+        <v>844173.7885841689</v>
       </c>
       <c r="AE3" t="n">
-        <v>1009898.594334415</v>
+        <v>1155035.819859982</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.325971822321752e-06</v>
+        <v>1.979557513515124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.69907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>913515.2898927167</v>
+        <v>1044800.822315499</v>
       </c>
     </row>
     <row r="4">
@@ -22053,28 +22053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>641.6971553404886</v>
+        <v>731.5256775323828</v>
       </c>
       <c r="AB4" t="n">
-        <v>877.998357617354</v>
+        <v>1000.905704635011</v>
       </c>
       <c r="AC4" t="n">
-        <v>794.2034266447874</v>
+        <v>905.3806689646244</v>
       </c>
       <c r="AD4" t="n">
-        <v>641697.1553404887</v>
+        <v>731525.6775323828</v>
       </c>
       <c r="AE4" t="n">
-        <v>877998.357617354</v>
+        <v>1000905.704635011</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42207888486934e-06</v>
+        <v>2.123036774963396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.0324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>794203.4266447874</v>
+        <v>905380.6689646244</v>
       </c>
     </row>
     <row r="5">
@@ -22159,28 +22159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>621.2708293263686</v>
+        <v>719.1801423081713</v>
       </c>
       <c r="AB5" t="n">
-        <v>850.0501572189308</v>
+        <v>984.0139986946701</v>
       </c>
       <c r="AC5" t="n">
-        <v>768.9225632668442</v>
+        <v>890.1010837315713</v>
       </c>
       <c r="AD5" t="n">
-        <v>621270.8293263686</v>
+        <v>719180.1423081713</v>
       </c>
       <c r="AE5" t="n">
-        <v>850050.1572189309</v>
+        <v>984013.9986946702</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.434134717803754e-06</v>
+        <v>2.141035056876519e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.84143518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>768922.5632668443</v>
+        <v>890101.0837315713</v>
       </c>
     </row>
   </sheetData>
